--- a/Author_info/articles - Copy.xlsx
+++ b/Author_info/articles - Copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\ofet-db\pgpractice\Data Inserts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulvenkatesh/Desktop/Github/ofet-db/Author_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38B5D7C-A07D-4A4A-B6E0-6562A0267687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3744D1E1-C8AC-2948-B6C1-81D6B60C620F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="375" windowWidth="25365" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>10.1002/adfm.201002729</t>
   </si>
@@ -117,9 +117,6 @@
     <t xml:space="preserve">10.1063/1.5135977 </t>
   </si>
   <si>
-    <t>10.1063/1.5135977</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.1039/c5tc02133b </t>
   </si>
   <si>
@@ -130,9 +127,6 @@
   </si>
   <si>
     <t xml:space="preserve">10.1021/acsami.7b08133 </t>
-  </si>
-  <si>
-    <t>10.1021/acsami.7b08133</t>
   </si>
   <si>
     <t>10.1021/acsmaterialslett.1c00320</t>
@@ -519,304 +513,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
         <v>17</v>
       </c>
     </row>
